--- a/backend/media/files/platformapi/law/simplelaw.xlsx
+++ b/backend/media/files/platformapi/law/simplelaw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Quan\Desktop\compliance\compliance\backend\media\files\platformapi\law\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE935F3-B17C-4628-B4AE-5E5EB11D15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC02DDFE-F671-41C0-B85A-DEF547B1759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/backend/media/files/platformapi/law/simplelaw.xlsx
+++ b/backend/media/files/platformapi/law/simplelaw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Quan\Desktop\compliance\compliance\backend\media\files\platformapi\law\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC02DDFE-F671-41C0-B85A-DEF547B1759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB00280-C937-4C9F-9168-359BD55E989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>条例</t>
   </si>
@@ -33,24 +33,9 @@
     <t>法条内容</t>
   </si>
   <si>
-    <t>第五十一条</t>
-  </si>
-  <si>
-    <t>第五十五条</t>
-  </si>
-  <si>
-    <t>第五十七条</t>
-  </si>
-  <si>
     <t>《数据安全法》</t>
   </si>
   <si>
-    <t>第二十九条</t>
-  </si>
-  <si>
-    <t>第二十一条</t>
-  </si>
-  <si>
     <t>第二十二条</t>
   </si>
   <si>
@@ -63,19 +48,7 @@
     <t>第一千零三十八条</t>
   </si>
   <si>
-    <t>6.2去标识化处理</t>
-  </si>
-  <si>
-    <t>6.3个人敏感信息的传输和存储</t>
-  </si>
-  <si>
     <t>5.3存储</t>
-  </si>
-  <si>
-    <t>6.2保存</t>
-  </si>
-  <si>
-    <t>第十三条</t>
   </si>
   <si>
     <t>《儿童个人信息网络保护规定》</t>
@@ -1205,6 +1178,58 @@
   <si>
     <t>个人财产信息</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2去标识化处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3个人敏感信息的传输和存储</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五十一条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五十五条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五十七条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十九条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十一条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2保存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息类别二级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1309,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1337,6 +1362,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D999"/>
+  <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1630,11 +1658,12 @@
     <col min="2" max="2" width="17.06640625" customWidth="1"/>
     <col min="3" max="3" width="78.3984375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1643,250 +1672,295 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="45.75" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="255.75" x14ac:dyDescent="0.5">
+      <c r="A17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45.75" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="255.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
